--- a/xlsx/联邦储备委员会_intext.xlsx
+++ b/xlsx/联邦储备委员会_intext.xlsx
@@ -29,7 +29,7 @@
     <t>联邦储备系统</t>
   </si>
   <si>
-    <t>政策_政策_美國_联邦储备委员会</t>
+    <t>政策_政策_美国_联邦储备委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eccles_Building</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%80%AB</t>
   </si>
   <si>
-    <t>耶倫</t>
+    <t>耶伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%89%B9%C2%B7%E8%80%B6%E5%80%AB</t>
   </si>
   <si>
-    <t>珍妮特·耶倫</t>
+    <t>珍妮特·耶伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E7%BE%85%E5%A7%86%C2%B7%E9%AE%91%E5%A8%81%E7%88%BE</t>
   </si>
   <si>
-    <t>傑羅姆·鮑威爾</t>
+    <t>杰罗姆·鲍威尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Frederic_A._Delano</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>紐約聯邦儲備銀行</t>
+    <t>纽约联邦储备银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_P.G._Harding</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%80%AB%C2%B7%E8%91%9B%E6%9E%97%E6%96%AF%E7%8F%AD</t>
   </si>
   <si>
-    <t>亞倫·葛林斯班</t>
+    <t>亚伦·葛林斯班</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/David_W._Mullins,_Jr.</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>美國法典</t>
+    <t>美国法典</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Title_12_of_the_United_States_Code</t>
